--- a/output_files/15/excel_table.xlsx
+++ b/output_files/15/excel_table.xlsx
@@ -9,12 +9,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Алапаевский р-н, с. Костино,ул. Советская, д. 1</t>
-  </si>
-  <si>
-    <t>Алапаевский р-он, пгт. Верхняя Синячиха, ул. Красной Гвардии, стр. 6</t>
   </si>
 </sst>
 </file>
@@ -55,9 +52,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD1"/>
   <cols>
-    <col min="1" max="1" width="60"/>
+    <col min="1" max="1" width="48"/>
     <col min="2" max="2" width="3"/>
     <col min="3" max="3" width="1"/>
     <col min="4" max="4" width="1"/>
@@ -95,11 +92,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>